--- a/biology/Botanique/Jardin_Hérold/Jardin_Hérold.xlsx
+++ b/biology/Botanique/Jardin_Hérold/Jardin_Hérold.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jardin_H%C3%A9rold</t>
+          <t>Jardin_Hérold</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le jardin Hérold est un espace vert situé au 11, rue Francis-Ponge ou au 76, rue du Général-Brunet dans le 19e arrondissement de Paris, dans le quartier d'Amérique.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jardin_H%C3%A9rold</t>
+          <t>Jardin_Hérold</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le jardin Hérold est accessible par la ligne 7bis du métro à la station Danube et à distance par la ligne 3b du tramway aux stations Hôpital Robert-Debré et Butte du Chapeau Rouge.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jardin_H%C3%A9rold</t>
+          <t>Jardin_Hérold</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le jardin prend une forme triangulaire de 2 800 m2, définie par la rue Francis-Ponge et les immeubles de la rue du Général-Brunet et du boulevard Sérurier.
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Jardin_H%C3%A9rold</t>
+          <t>Jardin_Hérold</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Origine du nom</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Comme l'ancien hôpital, le jardin reprend le nom de Ferdinand Hérold, préfet de la Seine.
 </t>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Jardin_H%C3%A9rold</t>
+          <t>Jardin_Hérold</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,9 +623,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le terrain qu'occupera le jardin était précédemment occupé par l'hôpital Hérold. Celui-ci occupait tout l'espace compris entre la rue David-d'Angers, le boulevard Sérurier et la rue du Général-Brunet. Lorsque l'hôpital a été transféré dans le nouvel hôpital Robert-Debré en 1988, la friche a fait l'objet d'une opération immobilière. Elle a d'abord été divisée en deux par une nouvelle rue, la rue Francis-Ponge et de nouveaux locaux ont été construits en 1995 pour le lycée Diderot sur la partie sud. La partie nord a été bâtie plus tardivement fin des années 2000 le long des voies. Seul le cœur d'îlot restait libre, classé inconstructible. Un projet d'espace vert a été retenu[1]. Le jardin a ouvert en 2012.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le terrain qu'occupera le jardin était précédemment occupé par l'hôpital Hérold. Celui-ci occupait tout l'espace compris entre la rue David-d'Angers, le boulevard Sérurier et la rue du Général-Brunet. Lorsque l'hôpital a été transféré dans le nouvel hôpital Robert-Debré en 1988, la friche a fait l'objet d'une opération immobilière. Elle a d'abord été divisée en deux par une nouvelle rue, la rue Francis-Ponge et de nouveaux locaux ont été construits en 1995 pour le lycée Diderot sur la partie sud. La partie nord a été bâtie plus tardivement fin des années 2000 le long des voies. Seul le cœur d'îlot restait libre, classé inconstructible. Un projet d'espace vert a été retenu. Le jardin a ouvert en 2012.
 </t>
         </is>
       </c>
